--- a/Data/GPRvolume_1990.xlsx
+++ b/Data/GPRvolume_1990.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Hill\Desktop\BPA_stuff\Northwest Region\Williamette\ResSim Reservoirs\Willamette\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\OneDrive - University of North Carolina at Chapel Hill\UNC_2017\PNW\INFEWSgroup_Willamette\Willamette_model\Williamette\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="GPR_1990_Initial" sheetId="1" r:id="rId1"/>
@@ -839,15 +839,15 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>33236</v>
       </c>
@@ -869,7 +869,7 @@
         <v>165027</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>33236</v>
       </c>
@@ -880,7 +880,7 @@
         <v>165048</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>33236</v>
       </c>
@@ -891,7 +891,7 @@
         <v>164816</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>33236</v>
       </c>
@@ -902,7 +902,7 @@
         <v>164563</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>33236</v>
       </c>
@@ -913,7 +913,7 @@
         <v>164373</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>33236</v>
       </c>
@@ -924,7 +924,7 @@
         <v>164288</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>33236</v>
       </c>
@@ -935,7 +935,7 @@
         <v>164352</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>33236</v>
       </c>
@@ -946,7 +946,7 @@
         <v>164457</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>33236</v>
       </c>
@@ -957,7 +957,7 @@
         <v>164520</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>33236</v>
       </c>
@@ -968,7 +968,7 @@
         <v>164605</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>33236</v>
       </c>
@@ -979,7 +979,7 @@
         <v>164668</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>33236</v>
       </c>
@@ -990,7 +990,7 @@
         <v>164753</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>33236</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>164795</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>33236</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>164921</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>33236</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>164900</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>33236</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>164710</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>33236</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>164394</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>33236</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>164036</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>33236</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>163804</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>33236</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>163783</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>33236</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>163931</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>33236</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>163909</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>33236</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>164015</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>33236</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>164057</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>33237</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>164120</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>33237</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>164099</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>33237</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>163573</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>33237</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>163321</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>33237</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>163342</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>33237</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>163426</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>33237</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>163489</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>33237</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>163531</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33237</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>163594</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>33237</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>163657</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>33237</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>163741</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>33237</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>163783</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>33237</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>163846</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>33237</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>163825</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>33237</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>163615</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>33237</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>163300</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>33237</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>162943</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>33237</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>162671</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>33237</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>162734</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>33237</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>162734</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>33237</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>162838</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>33237</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>162901</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>33237</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>162943</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>33238</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>163006</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>33238</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>162964</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>33238</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>162776</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>33238</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>162462</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>33238</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>162273</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>33238</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>162210</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>33238</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>162273</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>33238</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>162315</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>33238</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>162441</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>33238</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>162441</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>33238</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>162524</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>33238</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>162566</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>33238</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>162629</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>33238</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>162692</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>33238</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>162755</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>33238</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>162462</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>33238</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>162127</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>33238</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>161834</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>33238</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>161563</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>33238</v>
       </c>
@@ -1596,6 +1596,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C68">
+    <sortCondition ref="A2:A68"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>